--- a/results/compare-password-sync-10salt.xlsx
+++ b/results/compare-password-sync-10salt.xlsx
@@ -36,7 +36,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="nan-compare-password-sync-10salt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-10salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-10salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -47,7 +47,7 @@
     </textPr>
   </connection>
   <connection id="2" name="nan-compare-password-sync-10salt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-10salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-10salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="3" name="napi-compare-password-sync-10salt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-sync-10salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-sync-10salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -34553,7 +34553,7 @@
   <dimension ref="A1:F1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F1002"/>
+      <selection activeCell="I1002" sqref="I1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
